--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uni\2808ICT\2808ICT Assignment Version 2\ST_Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B7A8D2-79FC-4E51-98BE-EB4E910EBC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319F4242-1B6D-4C1E-B1FC-D85CD8B27135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,7 +749,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -792,27 +792,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -821,15 +800,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="10" xfId="3" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
@@ -862,12 +832,42 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -877,14 +877,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1025,6 +1019,26 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -1133,26 +1147,6 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -1402,12 +1396,12 @@
   <dimension ref="B1:BP41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="CD14" sqref="CD14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="1" bestFit="1" customWidth="1"/>
@@ -1437,42 +1431,42 @@
       <c r="H1" s="9"/>
     </row>
     <row r="2" spans="2:68" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="31">
-        <v>1</v>
-      </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="47" t="s">
+      <c r="I2" s="21">
+        <v>1</v>
+      </c>
+      <c r="K2" s="24"/>
+      <c r="L2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="47" t="s">
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="36"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="26"/>
       <c r="W2" s="44" t="s">
         <v>1</v>
       </c>
       <c r="X2" s="45"/>
       <c r="Y2" s="45"/>
       <c r="Z2" s="46"/>
-      <c r="AA2" s="37"/>
+      <c r="AA2" s="27"/>
       <c r="AB2" s="44" t="s">
         <v>2</v>
       </c>
@@ -1482,7 +1476,7 @@
       <c r="AF2" s="45"/>
       <c r="AG2" s="45"/>
       <c r="AH2" s="46"/>
-      <c r="AI2" s="41"/>
+      <c r="AI2" s="31"/>
       <c r="AJ2" s="12" t="s">
         <v>3</v>
       </c>
@@ -1501,64 +1495,64 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="25" t="s">
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="26"/>
-      <c r="AX3" s="26"/>
-      <c r="AY3" s="26"/>
-      <c r="AZ3" s="26"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="25" t="s">
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="35"/>
+      <c r="AS3" s="35"/>
+      <c r="AT3" s="35"/>
+      <c r="AU3" s="35"/>
+      <c r="AV3" s="35"/>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="35"/>
+      <c r="AY3" s="35"/>
+      <c r="AZ3" s="35"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="BC3" s="26"/>
-      <c r="BD3" s="26"/>
-      <c r="BE3" s="26"/>
-      <c r="BF3" s="27"/>
+      <c r="BC3" s="35"/>
+      <c r="BD3" s="35"/>
+      <c r="BE3" s="35"/>
+      <c r="BF3" s="36"/>
     </row>
     <row r="4" spans="2:68" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C4" s="11"/>
@@ -1567,406 +1561,406 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="33">
+      <c r="I4" s="23">
         <v>31</v>
       </c>
-      <c r="J4" s="38">
-        <v>1</v>
-      </c>
-      <c r="K4" s="39">
+      <c r="J4" s="28">
+        <v>1</v>
+      </c>
+      <c r="K4" s="29">
         <v>2</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="29">
         <v>3</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="29">
         <v>4</v>
       </c>
-      <c r="N4" s="39">
+      <c r="N4" s="29">
         <v>7</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="29">
         <v>8</v>
       </c>
-      <c r="P4" s="39">
+      <c r="P4" s="29">
         <v>9</v>
       </c>
-      <c r="Q4" s="39">
+      <c r="Q4" s="29">
         <v>10</v>
       </c>
-      <c r="R4" s="39">
+      <c r="R4" s="29">
         <v>11</v>
       </c>
-      <c r="S4" s="39">
+      <c r="S4" s="29">
         <v>14</v>
       </c>
-      <c r="T4" s="39">
+      <c r="T4" s="29">
         <v>15</v>
       </c>
-      <c r="U4" s="39">
+      <c r="U4" s="29">
         <v>16</v>
       </c>
-      <c r="V4" s="39">
+      <c r="V4" s="29">
         <v>17</v>
       </c>
-      <c r="W4" s="39">
+      <c r="W4" s="29">
         <v>18</v>
       </c>
-      <c r="X4" s="39">
+      <c r="X4" s="29">
         <v>21</v>
       </c>
-      <c r="Y4" s="39">
+      <c r="Y4" s="29">
         <v>22</v>
       </c>
-      <c r="Z4" s="39">
+      <c r="Z4" s="29">
         <v>23</v>
       </c>
-      <c r="AA4" s="39">
+      <c r="AA4" s="29">
         <v>24</v>
       </c>
-      <c r="AB4" s="39">
+      <c r="AB4" s="29">
         <v>25</v>
       </c>
-      <c r="AC4" s="39">
+      <c r="AC4" s="29">
         <v>28</v>
       </c>
-      <c r="AD4" s="39">
+      <c r="AD4" s="29">
         <v>29</v>
       </c>
-      <c r="AE4" s="39">
+      <c r="AE4" s="29">
         <v>30</v>
       </c>
-      <c r="AF4" s="40">
+      <c r="AF4" s="30">
         <v>31</v>
       </c>
-      <c r="AG4" s="38">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="39">
+      <c r="AG4" s="28">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="29">
         <v>4</v>
       </c>
-      <c r="AI4" s="39">
+      <c r="AI4" s="29">
         <v>5</v>
       </c>
-      <c r="AJ4" s="39">
+      <c r="AJ4" s="29">
         <v>6</v>
       </c>
-      <c r="AK4" s="39">
+      <c r="AK4" s="29">
         <v>7</v>
       </c>
-      <c r="AL4" s="39">
+      <c r="AL4" s="29">
         <v>8</v>
       </c>
-      <c r="AM4" s="39">
+      <c r="AM4" s="29">
         <v>11</v>
       </c>
-      <c r="AN4" s="39">
+      <c r="AN4" s="29">
         <v>12</v>
       </c>
-      <c r="AO4" s="39">
+      <c r="AO4" s="29">
         <v>13</v>
       </c>
-      <c r="AP4" s="39">
+      <c r="AP4" s="29">
         <v>14</v>
       </c>
-      <c r="AQ4" s="39">
+      <c r="AQ4" s="29">
         <v>15</v>
       </c>
-      <c r="AR4" s="39">
+      <c r="AR4" s="29">
         <v>18</v>
       </c>
-      <c r="AS4" s="39">
+      <c r="AS4" s="29">
         <v>19</v>
       </c>
-      <c r="AT4" s="39">
+      <c r="AT4" s="29">
         <v>20</v>
       </c>
-      <c r="AU4" s="39">
+      <c r="AU4" s="29">
         <v>21</v>
       </c>
-      <c r="AV4" s="39">
+      <c r="AV4" s="29">
         <v>22</v>
       </c>
-      <c r="AW4" s="39">
+      <c r="AW4" s="29">
         <v>25</v>
       </c>
-      <c r="AX4" s="39">
+      <c r="AX4" s="29">
         <v>26</v>
       </c>
-      <c r="AY4" s="39">
+      <c r="AY4" s="29">
         <v>27</v>
       </c>
-      <c r="AZ4" s="39">
+      <c r="AZ4" s="29">
         <v>28</v>
       </c>
-      <c r="BA4" s="40">
+      <c r="BA4" s="30">
         <v>29</v>
       </c>
-      <c r="BB4" s="38">
+      <c r="BB4" s="28">
         <v>2</v>
       </c>
-      <c r="BC4" s="39">
+      <c r="BC4" s="29">
         <v>3</v>
       </c>
-      <c r="BD4" s="39">
+      <c r="BD4" s="29">
         <v>4</v>
       </c>
-      <c r="BE4" s="39">
+      <c r="BE4" s="29">
         <v>5</v>
       </c>
-      <c r="BF4" s="40">
+      <c r="BF4" s="30">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:68" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="25" t="s">
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="25" t="s">
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="25" t="s">
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="25" t="s">
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="25" t="s">
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="26"/>
-      <c r="AK5" s="26"/>
-      <c r="AL5" s="27"/>
-      <c r="AM5" s="25" t="s">
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="26"/>
-      <c r="AQ5" s="27"/>
-      <c r="AR5" s="25" t="s">
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AS5" s="26"/>
-      <c r="AT5" s="26"/>
-      <c r="AU5" s="26"/>
-      <c r="AV5" s="27"/>
-      <c r="AW5" s="25" t="s">
+      <c r="AS5" s="35"/>
+      <c r="AT5" s="35"/>
+      <c r="AU5" s="35"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="AX5" s="26"/>
-      <c r="AY5" s="26"/>
-      <c r="AZ5" s="26"/>
-      <c r="BA5" s="27"/>
-      <c r="BB5" s="25" t="s">
+      <c r="AX5" s="35"/>
+      <c r="AY5" s="35"/>
+      <c r="AZ5" s="35"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="BC5" s="26"/>
-      <c r="BD5" s="26"/>
-      <c r="BE5" s="26"/>
-      <c r="BF5" s="27"/>
+      <c r="BC5" s="35"/>
+      <c r="BD5" s="35"/>
+      <c r="BE5" s="35"/>
+      <c r="BF5" s="36"/>
     </row>
     <row r="6" spans="2:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="28">
-        <v>1</v>
-      </c>
-      <c r="J6" s="29">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="18">
+        <v>1</v>
+      </c>
+      <c r="J6" s="19">
         <v>2</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="19">
         <v>3</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="19">
         <v>4</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="20">
         <v>5</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="18">
         <v>6</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="19">
         <v>7</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="19">
         <v>8</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="Q6" s="19">
         <v>9</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="20">
         <v>10</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="18">
         <v>11</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="19">
         <v>12</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="19">
         <v>13</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="19">
         <v>14</v>
       </c>
-      <c r="W6" s="30">
+      <c r="W6" s="20">
         <v>15</v>
       </c>
-      <c r="X6" s="28">
+      <c r="X6" s="18">
         <v>16</v>
       </c>
-      <c r="Y6" s="29">
+      <c r="Y6" s="19">
         <v>17</v>
       </c>
-      <c r="Z6" s="29">
+      <c r="Z6" s="19">
         <v>18</v>
       </c>
-      <c r="AA6" s="29">
+      <c r="AA6" s="19">
         <v>19</v>
       </c>
-      <c r="AB6" s="30">
+      <c r="AB6" s="20">
         <v>20</v>
       </c>
-      <c r="AC6" s="28">
+      <c r="AC6" s="18">
         <v>21</v>
       </c>
-      <c r="AD6" s="29">
+      <c r="AD6" s="19">
         <v>22</v>
       </c>
-      <c r="AE6" s="29">
+      <c r="AE6" s="19">
         <v>23</v>
       </c>
-      <c r="AF6" s="29">
+      <c r="AF6" s="19">
         <v>24</v>
       </c>
-      <c r="AG6" s="30">
+      <c r="AG6" s="20">
         <v>25</v>
       </c>
-      <c r="AH6" s="28">
+      <c r="AH6" s="18">
         <v>26</v>
       </c>
-      <c r="AI6" s="29">
+      <c r="AI6" s="19">
         <v>27</v>
       </c>
-      <c r="AJ6" s="29">
+      <c r="AJ6" s="19">
         <v>28</v>
       </c>
-      <c r="AK6" s="29">
+      <c r="AK6" s="19">
         <v>29</v>
       </c>
-      <c r="AL6" s="30">
+      <c r="AL6" s="20">
         <v>30</v>
       </c>
-      <c r="AM6" s="28">
+      <c r="AM6" s="18">
         <v>31</v>
       </c>
-      <c r="AN6" s="29">
+      <c r="AN6" s="19">
         <v>32</v>
       </c>
-      <c r="AO6" s="29">
+      <c r="AO6" s="19">
         <v>33</v>
       </c>
-      <c r="AP6" s="29">
+      <c r="AP6" s="19">
         <v>34</v>
       </c>
-      <c r="AQ6" s="30">
+      <c r="AQ6" s="20">
         <v>35</v>
       </c>
-      <c r="AR6" s="28">
+      <c r="AR6" s="18">
         <v>36</v>
       </c>
-      <c r="AS6" s="29">
+      <c r="AS6" s="19">
         <v>37</v>
       </c>
-      <c r="AT6" s="29">
+      <c r="AT6" s="19">
         <v>38</v>
       </c>
-      <c r="AU6" s="29">
+      <c r="AU6" s="19">
         <v>39</v>
       </c>
-      <c r="AV6" s="30">
+      <c r="AV6" s="20">
         <v>40</v>
       </c>
-      <c r="AW6" s="28">
+      <c r="AW6" s="18">
         <v>41</v>
       </c>
-      <c r="AX6" s="29">
+      <c r="AX6" s="19">
         <v>42</v>
       </c>
-      <c r="AY6" s="29">
+      <c r="AY6" s="19">
         <v>43</v>
       </c>
-      <c r="AZ6" s="29">
+      <c r="AZ6" s="19">
         <v>44</v>
       </c>
-      <c r="BA6" s="30">
+      <c r="BA6" s="20">
         <v>45</v>
       </c>
-      <c r="BB6" s="28">
+      <c r="BB6" s="18">
         <v>46</v>
       </c>
-      <c r="BC6" s="29">
+      <c r="BC6" s="19">
         <v>47</v>
       </c>
-      <c r="BD6" s="29">
+      <c r="BD6" s="19">
         <v>48</v>
       </c>
-      <c r="BE6" s="29">
+      <c r="BE6" s="19">
         <v>49</v>
       </c>
-      <c r="BF6" s="30">
+      <c r="BF6" s="20">
         <v>50</v>
       </c>
       <c r="BG6" s="3">
@@ -2001,13 +1995,13 @@
       </c>
     </row>
     <row r="7" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="24">
-        <v>1</v>
-      </c>
-      <c r="E7" s="24">
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17">
         <v>40</v>
       </c>
       <c r="F7" s="6">
@@ -2019,39 +2013,39 @@
       </c>
     </row>
     <row r="8" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22">
-        <v>1</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="24">
-        <v>1</v>
-      </c>
-      <c r="E8" s="24">
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17">
         <v>5</v>
       </c>
       <c r="F8" s="6">
         <v>9</v>
       </c>
       <c r="G8" s="6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="22">
+      <c r="B9" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="24">
-        <v>1</v>
-      </c>
-      <c r="E9" s="24">
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17">
         <v>1</v>
       </c>
       <c r="F9" s="6">
@@ -2065,16 +2059,16 @@
       </c>
     </row>
     <row r="10" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22">
+      <c r="B10" s="15">
         <v>1.2</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="17">
         <v>2</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="17">
         <v>1</v>
       </c>
       <c r="F10" s="6">
@@ -2088,16 +2082,16 @@
       </c>
     </row>
     <row r="11" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22">
+      <c r="B11" s="15">
         <v>1.3</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="17">
         <v>3</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="17">
         <v>1</v>
       </c>
       <c r="F11" s="6">
@@ -2111,16 +2105,16 @@
       </c>
     </row>
     <row r="12" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22">
+      <c r="B12" s="15">
         <v>1.4</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="17">
         <v>4</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="17">
         <v>1</v>
       </c>
       <c r="F12" s="6">
@@ -2134,16 +2128,16 @@
       </c>
     </row>
     <row r="13" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="22">
+      <c r="B13" s="15">
         <v>1.5</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="17">
         <v>5</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="17">
         <v>1</v>
       </c>
       <c r="F13" s="6">
@@ -2157,16 +2151,16 @@
       </c>
     </row>
     <row r="14" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="22">
+      <c r="B14" s="15">
         <v>2</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="17">
         <v>6</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="17">
         <v>10</v>
       </c>
       <c r="F14" s="6"/>
@@ -2176,16 +2170,16 @@
       </c>
     </row>
     <row r="15" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="22">
+      <c r="B15" s="15">
         <v>2.1</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="17">
         <v>6</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="17">
         <v>1</v>
       </c>
       <c r="F15" s="6"/>
@@ -2195,16 +2189,16 @@
       </c>
     </row>
     <row r="16" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="22">
+      <c r="B16" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="17">
         <v>7</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="17">
         <v>2</v>
       </c>
       <c r="F16" s="6"/>
@@ -2214,16 +2208,16 @@
       </c>
     </row>
     <row r="17" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="22">
+      <c r="B17" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="17">
         <v>9</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="17">
         <v>3</v>
       </c>
       <c r="F17" s="6"/>
@@ -2233,16 +2227,16 @@
       </c>
     </row>
     <row r="18" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="22">
+      <c r="B18" s="15">
         <v>2.4</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="17">
         <v>12</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="17">
         <v>4</v>
       </c>
       <c r="F18" s="6"/>
@@ -2252,16 +2246,16 @@
       </c>
     </row>
     <row r="19" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="22">
+      <c r="B19" s="15">
         <v>3</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="17">
         <v>16</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="17">
         <v>10</v>
       </c>
       <c r="F19" s="6"/>
@@ -2271,16 +2265,16 @@
       </c>
     </row>
     <row r="20" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22">
+      <c r="B20" s="15">
         <v>3.1</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="17">
         <v>16</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="17">
         <v>10</v>
       </c>
       <c r="F20" s="6"/>
@@ -2290,16 +2284,16 @@
       </c>
     </row>
     <row r="21" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="17">
         <v>26</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="17">
         <v>5</v>
       </c>
       <c r="F21" s="6"/>
@@ -2309,16 +2303,16 @@
       </c>
     </row>
     <row r="22" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="17">
         <v>26</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="17">
         <v>3</v>
       </c>
       <c r="F22" s="6"/>
@@ -2328,16 +2322,16 @@
       </c>
     </row>
     <row r="23" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="17">
         <v>29</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="17">
         <v>1</v>
       </c>
       <c r="F23" s="6"/>
@@ -2347,16 +2341,16 @@
       </c>
     </row>
     <row r="24" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="17">
         <v>30</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="17">
         <v>1</v>
       </c>
       <c r="F24" s="6"/>
@@ -2366,16 +2360,16 @@
       </c>
     </row>
     <row r="25" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="17">
         <v>31</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="17">
         <v>10</v>
       </c>
       <c r="F25" s="6"/>
@@ -2385,16 +2379,16 @@
       </c>
     </row>
     <row r="26" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="17">
         <v>31</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="17">
         <v>4</v>
       </c>
       <c r="F26" s="6"/>
@@ -2404,16 +2398,16 @@
       </c>
     </row>
     <row r="27" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="17">
         <v>35</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="17">
         <v>4</v>
       </c>
       <c r="F27" s="6"/>
@@ -2423,16 +2417,16 @@
       </c>
     </row>
     <row r="28" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="17">
         <v>39</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="17">
         <v>1</v>
       </c>
       <c r="F28" s="6"/>
@@ -2442,16 +2436,16 @@
       </c>
     </row>
     <row r="29" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="17">
         <v>39</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="17">
         <v>1</v>
       </c>
       <c r="F29" s="6"/>
@@ -2461,16 +2455,16 @@
       </c>
     </row>
     <row r="30" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="17">
         <v>40</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="17">
         <v>1</v>
       </c>
       <c r="F30" s="6"/>
@@ -2537,269 +2531,26 @@
       <c r="AA32"/>
       <c r="AB32"/>
     </row>
-    <row r="33" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-    </row>
-    <row r="34" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-    </row>
-    <row r="35" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-    </row>
-    <row r="36" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-      <c r="AA36"/>
-      <c r="AB36"/>
-    </row>
-    <row r="37" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-      <c r="Z37"/>
-      <c r="AA37"/>
-      <c r="AB37"/>
-    </row>
-    <row r="38" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-      <c r="AA38"/>
-      <c r="AB38"/>
-    </row>
-    <row r="39" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
-      <c r="X39"/>
-      <c r="Y39"/>
-      <c r="Z39"/>
-      <c r="AA39"/>
-      <c r="AB39"/>
-    </row>
-    <row r="40" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-      <c r="X40"/>
-      <c r="Y40"/>
-      <c r="Z40"/>
-      <c r="AA40"/>
-      <c r="AB40"/>
-    </row>
-    <row r="41" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-      <c r="X41"/>
-      <c r="Y41"/>
-      <c r="Z41"/>
-      <c r="AA41"/>
-      <c r="AB41"/>
-    </row>
+    <row r="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB2:AH2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="L2:P2"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="J3:AF3"/>
     <mergeCell ref="AG3:BA3"/>
@@ -2816,70 +2567,61 @@
     <mergeCell ref="BB5:BF5"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AB2:AH2"/>
-    <mergeCell ref="C2:G2"/>
   </mergeCells>
+  <conditionalFormatting sqref="A31:A41">
+    <cfRule type="expression" dxfId="16" priority="21">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="22">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="23">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="24">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="25">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="26">
+      <formula>BP$6=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="27">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="28">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I6:BP6">
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>I$6=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BP30">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>I$6=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:A41">
-    <cfRule type="expression" dxfId="7" priority="21">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="22">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="23">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="24">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="25">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="26">
-      <formula>BP$6=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="27">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Gantt chart.xlsx
+++ b/Gantt chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Uni\2808ICT\2808ICT Assignment Version 2\ST_Assignment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319F4242-1B6D-4C1E-B1FC-D85CD8B27135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EE1AD5-9871-4D0E-8A59-FFEF8EB8FDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -832,12 +832,45 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -846,39 +879,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1396,7 +1396,7 @@
   <dimension ref="B1:BP41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1431,13 +1431,13 @@
       <c r="H1" s="9"/>
     </row>
     <row r="2" spans="2:68" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1445,37 +1445,37 @@
         <v>1</v>
       </c>
       <c r="K2" s="24"/>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="43"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="34"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="43"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="34"/>
       <c r="V2" s="26"/>
-      <c r="W2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="46"/>
+      <c r="W2" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="37"/>
       <c r="AA2" s="27"/>
-      <c r="AB2" s="44" t="s">
+      <c r="AB2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="46"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="37"/>
       <c r="AI2" s="31"/>
       <c r="AJ2" s="12" t="s">
         <v>3</v>
@@ -1498,61 +1498,61 @@
       <c r="I3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="34" t="s">
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
-      <c r="AT3" s="35"/>
-      <c r="AU3" s="35"/>
-      <c r="AV3" s="35"/>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="35"/>
-      <c r="AY3" s="35"/>
-      <c r="AZ3" s="35"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="34" t="s">
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="46"/>
+      <c r="AJ3" s="46"/>
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="46"/>
+      <c r="AM3" s="46"/>
+      <c r="AN3" s="46"/>
+      <c r="AO3" s="46"/>
+      <c r="AP3" s="46"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="BC3" s="35"/>
-      <c r="BD3" s="35"/>
-      <c r="BE3" s="35"/>
-      <c r="BF3" s="36"/>
+      <c r="BC3" s="46"/>
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="46"/>
+      <c r="BF3" s="47"/>
     </row>
     <row r="4" spans="2:68" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C4" s="11"/>
@@ -1713,106 +1713,106 @@
       </c>
     </row>
     <row r="5" spans="2:68" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="34" t="s">
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="34" t="s">
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="34" t="s">
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="34" t="s">
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="34" t="s">
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="47"/>
+      <c r="AH5" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="34" t="s">
+      <c r="AI5" s="46"/>
+      <c r="AJ5" s="46"/>
+      <c r="AK5" s="46"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="34" t="s">
+      <c r="AN5" s="46"/>
+      <c r="AO5" s="46"/>
+      <c r="AP5" s="46"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="AS5" s="35"/>
-      <c r="AT5" s="35"/>
-      <c r="AU5" s="35"/>
-      <c r="AV5" s="36"/>
-      <c r="AW5" s="34" t="s">
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46"/>
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AX5" s="35"/>
-      <c r="AY5" s="35"/>
-      <c r="AZ5" s="35"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="34" t="s">
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="46"/>
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="47"/>
+      <c r="BB5" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="BC5" s="35"/>
-      <c r="BD5" s="35"/>
-      <c r="BE5" s="35"/>
-      <c r="BF5" s="36"/>
+      <c r="BC5" s="46"/>
+      <c r="BD5" s="46"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="47"/>
     </row>
     <row r="6" spans="2:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="40"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="44"/>
       <c r="I6" s="18">
         <v>1</v>
       </c>
@@ -2163,10 +2163,14 @@
       <c r="E14" s="17">
         <v>10</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="6">
+        <v>25</v>
+      </c>
+      <c r="G14" s="6">
+        <v>5</v>
+      </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2182,10 +2186,14 @@
       <c r="E15" s="17">
         <v>1</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="6">
+        <v>25</v>
+      </c>
+      <c r="G15" s="6">
+        <v>5</v>
+      </c>
       <c r="H15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2201,10 +2209,14 @@
       <c r="E16" s="17">
         <v>2</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="F16" s="6">
+        <v>25</v>
+      </c>
+      <c r="G16" s="6">
+        <v>5</v>
+      </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2220,10 +2232,14 @@
       <c r="E17" s="17">
         <v>3</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="F17" s="6">
+        <v>25</v>
+      </c>
+      <c r="G17" s="6">
+        <v>5</v>
+      </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2239,10 +2255,14 @@
       <c r="E18" s="17">
         <v>4</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="F18" s="6">
+        <v>25</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5</v>
+      </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2542,15 +2562,6 @@
     <row r="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AB2:AH2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="L2:P2"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="J3:AF3"/>
     <mergeCell ref="AG3:BA3"/>
@@ -2567,6 +2578,15 @@
     <mergeCell ref="BB5:BF5"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AB2:AH2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="L2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="A31:A41">
     <cfRule type="expression" dxfId="16" priority="21">
